--- a/report/stock_report_22-12-28 .xlsx
+++ b/report/stock_report_22-12-28 .xlsx
@@ -767,9 +767,8 @@
           <t>알파벳</t>
         </is>
       </c>
-      <c r="C4" s="26">
-        <f>3030.93/20</f>
-        <v/>
+      <c r="C4" s="26" t="n">
+        <v>151.55</v>
       </c>
       <c r="D4" s="26">
         <f>C4*0.9</f>
@@ -807,7 +806,7 @@
         </is>
       </c>
       <c r="C5" s="26" t="n">
-        <v>346.47</v>
+        <v>313.3</v>
       </c>
       <c r="D5" s="26">
         <f>C5*0.9</f>
@@ -843,7 +842,7 @@
         </is>
       </c>
       <c r="C6" s="26" t="n">
-        <v>414.5</v>
+        <v>402.67</v>
       </c>
       <c r="D6" s="26">
         <f>C6*0.9</f>
@@ -905,7 +904,7 @@
         </is>
       </c>
       <c r="C8" s="26" t="n">
-        <v>181.07</v>
+        <v>186.84</v>
       </c>
       <c r="D8" s="26">
         <f>C8*0.9</f>
@@ -931,7 +930,7 @@
         </is>
       </c>
       <c r="C9" s="26" t="n">
-        <v>895.9299999999999</v>
+        <v>724.5</v>
       </c>
       <c r="D9" s="26">
         <f>C9*0.9</f>
@@ -957,7 +956,7 @@
         </is>
       </c>
       <c r="C10" s="26" t="n">
-        <v>895.9299999999999</v>
+        <v>404.58</v>
       </c>
       <c r="D10" s="26">
         <f>C10*0.9</f>
@@ -983,7 +982,7 @@
         </is>
       </c>
       <c r="C11" s="26" t="n">
-        <v>895.9299999999999</v>
+        <v>479.98</v>
       </c>
       <c r="D11" s="26">
         <f>C11*0.9</f>
@@ -1058,7 +1057,7 @@
         <v/>
       </c>
       <c r="E15" s="26" t="n">
-        <v>149.35</v>
+        <v>130.03</v>
       </c>
       <c r="F15" s="10">
         <f>(E15-C3)/C3</f>
@@ -1091,7 +1090,7 @@
         <v/>
       </c>
       <c r="E16" s="26" t="n">
-        <v>94.93000000000001</v>
+        <v>87.39</v>
       </c>
       <c r="F16" s="10">
         <f>(E16-C4)/C4</f>
@@ -1124,7 +1123,7 @@
         <v/>
       </c>
       <c r="E17" s="31" t="n">
-        <v>128.96</v>
+        <v>141.21</v>
       </c>
       <c r="F17" s="10">
         <f>(E17-C5)/C5</f>
@@ -1157,7 +1156,7 @@
         <v/>
       </c>
       <c r="E18" s="26" t="n">
-        <v>224.64</v>
+        <v>109.1</v>
       </c>
       <c r="F18" s="10">
         <f>(E18-C6)/C6</f>
@@ -1190,7 +1189,7 @@
         <v/>
       </c>
       <c r="E19" s="26" t="n">
-        <v>59.39</v>
+        <v>64.20999999999999</v>
       </c>
       <c r="F19" s="10">
         <f>(E19-C7)/C7</f>
@@ -1223,7 +1222,7 @@
         <v/>
       </c>
       <c r="E20" s="26" t="n">
-        <v>179.07</v>
+        <v>183.07</v>
       </c>
       <c r="F20" s="10">
         <f>(E20-C8)/C8</f>
@@ -1256,7 +1255,7 @@
         <v/>
       </c>
       <c r="E21" s="26" t="n">
-        <v>484.09</v>
+        <v>510.3</v>
       </c>
       <c r="F21" s="10">
         <f>(E21-C9)/C9</f>
@@ -1284,7 +1283,7 @@
         <v/>
       </c>
       <c r="E22" s="26" t="n">
-        <v>277.93</v>
+        <v>263.58</v>
       </c>
       <c r="F22" s="10">
         <f>(E22-$A$22)/$A$22</f>
@@ -1312,7 +1311,7 @@
         <v/>
       </c>
       <c r="E23" s="26" t="n">
-        <v>382.02</v>
+        <v>381.4</v>
       </c>
       <c r="F23" s="10">
         <f>(E23-$A$24)/$A$24</f>
